--- a/medicine/Enfance/Vango/Vango.xlsx
+++ b/medicine/Enfance/Vango/Vango.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vango est une suite romanesque de deux romans pour la jeunesse écrits par Timothée de Fombelle.
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Vango Romano : Il a 19 ans au début du roman. Poursuivi pour un crime qu'il n'a pas commis, il est obligé de s'échapper. Police française, trafiquant d’arme, espions russes..., tous le cherchent. Mais Vango ne sait rien de lui. Qui est-il ? D'où vient-il ?
 Hugo Eckener : à la tête de l'entreprise de dirigeables Zeppelin, il réalise le premier et seul tour du monde en Zeppelin de l'histoire. Il est profondément anti-nazi. Ce personnage a vraiment existé et a joué à peu près le même rôle dans la réalité.
@@ -549,7 +563,9 @@
           <t>Lieux visités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paris : la fuite de Vango commence sur les marches de Notre-Dame et la ville apparaît souvent dans l'histoire.
 Île de Salina : Vango et Mademoiselle y échouent en 1918. C'est ici que grandira Vango, entre le ciel, les falaises, la mer et les oiseaux.
@@ -587,10 +603,12 @@
           <t>Critique littéraire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>« Assurément le meilleur de ce qui s'écrit aujourd'hui pour la jeunesse et pour tous les âges. » (Le Figaro littéraire, avril 2010)[1]
-« Tout le plaisir est là, dans cette effervescence d'un récit minutieusement bâti, pièce après pièce, dans cette énergie d'une plume aussi claire que vive, cette générosité de l'imagination, ce bonheur évident de raconter. » (Télérama)[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Assurément le meilleur de ce qui s'écrit aujourd'hui pour la jeunesse et pour tous les âges. » (Le Figaro littéraire, avril 2010)
+« Tout le plaisir est là, dans cette effervescence d'un récit minutieusement bâti, pièce après pièce, dans cette énergie d'une plume aussi claire que vive, cette générosité de l'imagination, ce bonheur évident de raconter. » (Télérama)
 « Une aventure trépidante qui séduira autant les ados que les parents. » (France Soir)</t>
         </is>
       </c>
@@ -619,10 +637,12 @@
           <t>Liste des volumes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Entre ciel et terre, Paris, Gallimard Jeunesse, novembre 2010, 384 p. (ISBN 978-2-07-065589-2)[3]
-Un prince sans royaume, Paris, Gallimard Jeunesse, octobre 2011, 400 p. (ISBN 978-2-07-063891-8)[4]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Entre ciel et terre, Paris, Gallimard Jeunesse, novembre 2010, 384 p. (ISBN 978-2-07-065589-2)
+Un prince sans royaume, Paris, Gallimard Jeunesse, octobre 2011, 400 p. (ISBN 978-2-07-063891-8)</t>
         </is>
       </c>
     </row>
@@ -650,11 +670,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2011 : Prix des Mordus du polar des bibliothèques de la ville de Paris
 2012 : Prix Ado-Lisant
-2012 : (international) « Honour List »[5] de l' IBBY pour Vango</t>
+2012 : (international) « Honour List » de l' IBBY pour Vango</t>
         </is>
       </c>
     </row>
